--- a/static/download/2018/RP2_SAF_JC_2018.xlsx
+++ b/static/download/2018/RP2_SAF_JC_2018.xlsx
@@ -28,76 +28,85 @@
     <t>Version</t>
   </si>
   <si>
+    <t>Policy and its implementation</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>Legal/Judiciary</t>
+  </si>
+  <si>
+    <t>Occurences</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
-    <t>Policy and its implementation</t>
-  </si>
-  <si>
-    <t>Legal/Judiciary</t>
-  </si>
-  <si>
     <t>Meta data</t>
   </si>
   <si>
-    <t>Occurences</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>FAB</t>
   </si>
   <si>
+    <t>ANSP</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>ANSP</t>
-  </si>
-  <si>
     <t>Baltic FAB</t>
   </si>
   <si>
+    <t>ORO NAVIGACIJA</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <t>ORO NAVIGACIJA</t>
+    <t>PANSA</t>
   </si>
   <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>PANSA</t>
-  </si>
-  <si>
     <t>BLUE MED FAB</t>
   </si>
   <si>
     <t>Cyprus</t>
   </si>
   <si>
+    <t>CYATS</t>
+  </si>
+  <si>
     <t>Greece</t>
   </si>
   <si>
+    <t>ENAV</t>
+  </si>
+  <si>
     <t>Italy</t>
   </si>
   <si>
+    <t>HANSP</t>
+  </si>
+  <si>
     <t>Malta</t>
   </si>
   <si>
-    <t>CYATS</t>
+    <t>MATS</t>
   </si>
   <si>
     <t>DANUBE FAB</t>
@@ -106,10 +115,13 @@
     <t>Bulgaria</t>
   </si>
   <si>
+    <t>BULATSA</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>ENAV</t>
+    <t>ROMATSA</t>
   </si>
   <si>
     <t>DK-SE FAB</t>
@@ -118,114 +130,120 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>HANSP</t>
+    <t>LFV</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>MATS</t>
+    <t>NAVIAIR</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>BULATSA</t>
-  </si>
-  <si>
-    <t>ROMATSA</t>
-  </si>
-  <si>
-    <t>LFV</t>
-  </si>
-  <si>
     <t>FAB CE</t>
   </si>
   <si>
-    <t>NAVIAIR</t>
+    <t>Austria</t>
   </si>
   <si>
     <t>ANS CR</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>8</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>8</t>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
+    <t>Austro Control</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Austro Control</t>
-  </si>
-  <si>
     <t>Croatia Control</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
     <t>Hungarocontrol</t>
   </si>
   <si>
-    <t>Hungary</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
+    <t>LPS SR</t>
+  </si>
+  <si>
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Slovenia Control</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
     <t>FABEC</t>
   </si>
   <si>
+    <t>ANA LUX</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>LPS SR</t>
+    <t>skeyes</t>
   </si>
   <si>
     <t>France</t>
   </si>
   <si>
+    <t>DFS</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
+    <t>DSNA</t>
+  </si>
+  <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Slovenia Control</t>
+    <t>LVNL</t>
   </si>
   <si>
     <t>Netherlands</t>
   </si>
   <si>
-    <t>ANA LUX</t>
+    <t>MUAC</t>
   </si>
   <si>
     <t>Switzerland</t>
   </si>
   <si>
+    <t>SKYGUIDE</t>
+  </si>
+  <si>
     <t>NEFAB</t>
   </si>
   <si>
@@ -235,64 +253,61 @@
     <t>3</t>
   </si>
   <si>
+    <t>Avinor</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
+    <t>EANS</t>
+  </si>
+  <si>
     <t>Latvia</t>
   </si>
   <si>
+    <t>ANS Finland</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
-    <t>skeyes</t>
-  </si>
-  <si>
     <t>SW FAB</t>
   </si>
   <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>DFS</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Change date</t>
+  </si>
+  <si>
     <t>UK-Ireland FAB</t>
   </si>
   <si>
+    <t>LGS</t>
+  </si>
+  <si>
     <t>Ireland</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>DSNA</t>
-  </si>
-  <si>
-    <t>LVNL</t>
-  </si>
-  <si>
-    <t>MUAC</t>
-  </si>
-  <si>
-    <t>SKYGUIDE</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Avinor</t>
-  </si>
-  <si>
-    <t>EANS</t>
-  </si>
-  <si>
-    <t>ANS Finland</t>
+    <t>ENAIRE</t>
+  </si>
+  <si>
+    <t>NAV Portugal</t>
+  </si>
+  <si>
+    <t>IAA</t>
+  </si>
+  <si>
+    <t>NATS NERL</t>
   </si>
   <si>
     <t>Entity</t>
@@ -308,21 +323,6 @@
   </si>
   <si>
     <t>Updated with latest information from EASA</t>
-  </si>
-  <si>
-    <t>LGS</t>
-  </si>
-  <si>
-    <t>ENAIRE</t>
-  </si>
-  <si>
-    <t>NAV Portugal</t>
-  </si>
-  <si>
-    <t>IAA</t>
-  </si>
-  <si>
-    <t>NATS NERL</t>
   </si>
 </sst>
 </file>
@@ -349,12 +349,12 @@
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
@@ -365,6 +365,10 @@
       <sz val="9.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -378,10 +382,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -483,30 +483,30 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -530,26 +530,26 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +592,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -600,13 +600,13 @@
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10">
         <v>43609.0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Reporting_of_Just_Culture","Reporting of Just Culture")</f>
@@ -623,7 +623,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="13" t="str">
         <f>HYPERLINK("mailto:PRU-Support@eurocontrol.int","PRU-Support@eurocontrol.int")</f>
@@ -657,50 +657,50 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -712,7 +712,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="16">
         <v>5.0</v>
@@ -741,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16">
         <v>7.0</v>
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="16">
         <v>8.0</v>
@@ -828,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="16">
         <v>6.0</v>
@@ -857,7 +857,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16">
         <v>9.0</v>
@@ -883,10 +883,10 @@
         <v>2018.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="16">
         <v>9.0</v>
@@ -912,10 +912,10 @@
         <v>2018.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="16">
         <v>9.0</v>
@@ -941,10 +941,10 @@
         <v>2018.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D11" s="16">
         <v>4.0</v>
@@ -970,10 +970,10 @@
         <v>2018.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="16">
         <v>6.0</v>
@@ -996,31 +996,31 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1028,10 +1028,10 @@
         <v>2018.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16">
         <v>5.0</v>
@@ -1057,10 +1057,10 @@
         <v>2018.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="16">
         <v>2.0</v>
@@ -1086,7 +1086,7 @@
         <v>2018.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>57</v>
@@ -1115,10 +1115,10 @@
         <v>2018.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="16">
         <v>9.0</v>
@@ -1144,10 +1144,10 @@
         <v>2018.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18" s="16">
         <v>6.0</v>
@@ -1173,10 +1173,10 @@
         <v>2018.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="16">
         <v>9.0</v>
@@ -1202,10 +1202,10 @@
         <v>2018.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20" s="16">
         <v>7.0</v>
@@ -1231,10 +1231,10 @@
         <v>2018.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16">
         <v>4.0</v>
@@ -1260,10 +1260,10 @@
         <v>2018.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="16">
         <v>6.0</v>
@@ -1289,10 +1289,10 @@
         <v>2018.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D23" s="16">
         <v>7.0</v>
@@ -1318,10 +1318,10 @@
         <v>2018.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D24" s="16">
         <v>9.0</v>
@@ -1344,31 +1344,31 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -1376,10 +1376,10 @@
         <v>2018.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" s="16">
         <v>8.0</v>
@@ -1405,10 +1405,10 @@
         <v>2018.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D27" s="16">
         <v>7.0</v>
@@ -1434,10 +1434,10 @@
         <v>2018.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D28" s="16">
         <v>8.0</v>
@@ -1463,10 +1463,10 @@
         <v>2018.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D29" s="16">
         <v>6.0</v>
@@ -1492,10 +1492,10 @@
         <v>2018.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D30" s="16">
         <v>9.0</v>
@@ -1521,10 +1521,10 @@
         <v>2018.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D31" s="16">
         <v>9.0</v>
@@ -1550,10 +1550,10 @@
         <v>2018.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D32" s="16">
         <v>9.0</v>
@@ -1608,49 +1608,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="16">
         <v>11.0</v>
@@ -1691,7 +1691,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="16">
         <v>11.0</v>
@@ -1720,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="16">
         <v>11.0</v>
@@ -1749,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="16">
         <v>12.0</v>
@@ -1778,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" s="16">
         <v>11.0</v>
@@ -1807,7 +1807,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="16">
         <v>12.0</v>
@@ -1833,10 +1833,10 @@
         <v>2018.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="16">
         <v>13.0</v>
@@ -1862,10 +1862,10 @@
         <v>2018.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="16">
         <v>11.0</v>
@@ -1891,10 +1891,10 @@
         <v>2018.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="16">
         <v>11.0</v>
@@ -1920,10 +1920,10 @@
         <v>2018.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="16">
         <v>9.0</v>
@@ -1946,31 +1946,31 @@
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1978,10 +1978,10 @@
         <v>2018.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="16">
         <v>13.0</v>
@@ -2007,7 +2007,7 @@
         <v>2018.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>54</v>
@@ -2036,10 +2036,10 @@
         <v>2018.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="16">
         <v>13.0</v>
@@ -2065,10 +2065,10 @@
         <v>2018.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="16">
         <v>10.0</v>
@@ -2094,10 +2094,10 @@
         <v>2018.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="16">
         <v>13.0</v>
@@ -2123,10 +2123,10 @@
         <v>2018.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="16">
         <v>12.0</v>
@@ -2152,10 +2152,10 @@
         <v>2018.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D20" s="16">
         <v>10.0</v>
@@ -2181,10 +2181,10 @@
         <v>2018.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D21" s="16">
         <v>13.0</v>
@@ -2210,10 +2210,10 @@
         <v>2018.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D22" s="16">
         <v>11.0</v>
@@ -2239,10 +2239,10 @@
         <v>2018.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D23" s="16">
         <v>10.0</v>
@@ -2268,10 +2268,10 @@
         <v>2018.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D24" s="16">
         <v>8.0</v>
@@ -2294,31 +2294,31 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="19" t="s">
+      <c r="I25" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -2326,10 +2326,10 @@
         <v>2018.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D26" s="16">
         <v>13.0</v>
@@ -2355,10 +2355,10 @@
         <v>2018.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D27" s="16">
         <v>13.0</v>
@@ -2384,10 +2384,10 @@
         <v>2018.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="D28" s="16">
         <v>12.0</v>
@@ -2413,10 +2413,10 @@
         <v>2018.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D29" s="16">
         <v>12.0</v>
@@ -2442,10 +2442,10 @@
         <v>2018.0</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16">
         <v>13.0</v>
@@ -2471,10 +2471,10 @@
         <v>2018.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="16">
         <v>9.0</v>
@@ -2500,10 +2500,10 @@
         <v>2018.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16">
         <v>13.0</v>
@@ -2529,10 +2529,10 @@
         <v>2018.0</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D33" s="16">
         <v>12.0</v>
@@ -2581,52 +2581,52 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>95</v>
+      <c r="B1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10">
         <v>43311.0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="24">
         <v>2017.0</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>97</v>
+      <c r="D2" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="10">
         <v>43610.0</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="23">
-        <v>2018.0</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>97</v>
+      <c r="B3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2018.0</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
